--- a/biology/Médecine/René_Nyssen/René_Nyssen.xlsx
+++ b/biology/Médecine/René_Nyssen/René_Nyssen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Nyssen</t>
+          <t>René_Nyssen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Nyssen, né en 1891 et décédé en novembre 1972, est un médecin psychiatre belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Nyssen</t>
+          <t>René_Nyssen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études à l'Université libre de Bruxelles, il devient d'abord professeur de psychiatrie à l'Université de Gand pour remplacer Maurice Hamelinck. En 1946, il part pour son université d'origine où il remplace Guillaume Vermeylen, décédé pendant la guerre. Jacques De Busscher devient son successeur à Gand. Dès les années 1930, il montre un intérêt prononcé pour la psychologie.
-En tant que clinicien il travaille à la colonie de Geel, au Stuivenberggasthuis (nl) à Anvers et puis à l'Institut de Psychiatrie à Bruxelles[1].
-Il a donné son nom au syndrome Nyssen-Von Bogaert-Meyer, un syndrome génétique rare[2].
+En tant que clinicien il travaille à la colonie de Geel, au Stuivenberggasthuis (nl) à Anvers et puis à l'Institut de Psychiatrie à Bruxelles.
+Il a donné son nom au syndrome Nyssen-Von Bogaert-Meyer, un syndrome génétique rare.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Nyssen</t>
+          <t>René_Nyssen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Membre dans des sociétés académiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Société belge de Neurologie (président en 1939)
 Société belge de Psychologie</t>
